--- a/equation_results/Equation Results Combined.xlsx
+++ b/equation_results/Equation Results Combined.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\school\Year 4\capstone\SYSC4907-Glioma-Growth-Visualization\equation_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83762C7-32A8-43FD-BB40-10E56C2539F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F5AB172-6AF5-4436-9B1E-7AEA20C98EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="2" activeTab="2" xr2:uid="{05E045BE-5E6C-4D09-B3D4-24375F4F1BE4}"/>
   </bookViews>
@@ -18,39 +18,18 @@
     <sheet name="Combined" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Combined!$AB$3:$AB$115</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Combined!$AH$3:$AH$116</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Combined!$P$4:$P$117</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Combined!$AB$3:$AB$115</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Combined!$AB$3:$AB$115</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Combined!$AH$3:$AH$116</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Combined!$AH$4:$AH$116</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Combined!$P$3:$P$116</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Combined!$V$3:$V$116</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Combined!$AB$3:$AB$113</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Combined!$AH$3:$AH$114</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Combined!$D$3:$D$114</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Combined!$AH$4:$AH$116</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Combined!$J$3:$J$114</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Combined!$N$1:$N$2</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Combined!$N$3:$N$114</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Combined!$O$1:$O$2</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Combined!$O$3:$O$114</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Combined!$P$1:$P$2</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Combined!$P$3:$P$114</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Combined!$Q$1:$Q$2</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Combined!$Q$3:$Q$114</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Combined!$V$3:$V$114</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Combined!$D$3:$D$114</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Combined!$AB$3:$AB$115</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Combined!$AB$3:$AB$116</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Combined!$V$3:$V$116</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Combined!$D$3:$D$116</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Combined!$D$3:$D$116</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Combined!$AB$3:$AB$113</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Combined!$AH$3:$AH$114</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Combined!$AH$3:$AH$116</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Combined!$P$3:$P$116</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Combined!$D$3:$D$114</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Combined!$J$3:$J$114</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Combined!$P$3:$P$114</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Combined!$V$3:$V$114</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Combined!$J$3:$J$116</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Combined!$J$3:$J$116</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Combined!$P$3:$P$116</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Combined!$P$3:$P$117</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Combined!$D$3:$D$116</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Combined!$V$3:$V$116</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Combined!$AB$3:$AB$115</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -652,32 +631,32 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -688,6 +667,11 @@
           <cx:v>Box Plot - Dice Similarity Coefficient</cx:v>
         </cx:txData>
       </cx:tx>
+      <cx:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </cx:spPr>
       <cx:txPr>
         <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
@@ -696,12 +680,9 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
             </a:rPr>
@@ -715,6 +696,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000005-E233-4586-ADE2-9EEDCC582050}" formatIdx="1">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dg = 0.0013, Dw = 0.0065</cx:v>
             </cx:txData>
           </cx:tx>
@@ -726,6 +708,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000006-E233-4586-ADE2-9EEDCC582050}" formatIdx="2">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dg = 0.00088, Dw = 0.088</cx:v>
             </cx:txData>
           </cx:tx>
@@ -737,6 +720,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000007-E233-4586-ADE2-9EEDCC582050}" formatIdx="3">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dg = 0.0176, Dw = 0.088</cx:v>
             </cx:txData>
           </cx:tx>
@@ -748,6 +732,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000008-E233-4586-ADE2-9EEDCC582050}" formatIdx="4">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dg = 0.13, Dw = 0.65</cx:v>
             </cx:txData>
           </cx:tx>
@@ -759,6 +744,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0000000A-E233-4586-ADE2-9EEDCC582050}" formatIdx="0">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>Dg = 0.028, Dw = 0.14</cx:v>
             </cx:txData>
           </cx:tx>
@@ -770,6 +756,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0000000B-E233-4586-ADE2-9EEDCC582050}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>ML</cx:v>
             </cx:txData>
           </cx:tx>
@@ -781,7 +768,26 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="1"/>
-        <cx:title/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -792,6 +798,11 @@
               <cx:v>Dice Similarity Coefficient</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
           <cx:txPr>
             <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
@@ -800,12 +811,9 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
                 </a:rPr>
@@ -816,6 +824,13 @@
         </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </cx:spPr>
       </cx:axis>
     </cx:plotArea>
     <cx:legend pos="b" align="ctr" overlay="0">
@@ -847,7 +862,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -866,7 +881,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -883,6 +898,125 @@
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{40E49695-1FD8-45CF-B2A9-72F503E82173}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.10000000000000001"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Dice Similarity Coefficient Bins</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Dice Similarity Coefficient Bins</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="50"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v># of Patients</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t># of Patients</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Dg = Dw/100, Dw = 0.088</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Dg = Dw/100, Dw = 0.088</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{17EFA49A-A14D-4E91-96EE-C7185B037391}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r">
@@ -924,7 +1058,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="50"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -939,124 +1073,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-                </a:rPr>
-                <a:t># of Patients</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Dg = 0.0176, Dw = 0.088</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Dg = 0.0176, Dw = 0.088</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{17EFA49A-A14D-4E91-96EE-C7185B037391}">
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Dice Similarity Coefficient Bins</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-                </a:rPr>
-                <a:t>Dice Similarity Coefficient Bins</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v># of Patients</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -1083,7 +1100,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1102,7 +1119,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -1160,7 +1177,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="50"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -1175,7 +1192,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -1202,7 +1219,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1221,7 +1238,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -1238,123 +1255,6 @@
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{5F5154ED-E0B3-4EF8-8E9A-AF0C6A11F13C}">
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v>Dice Similarity Coefficient Bins</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-                </a:rPr>
-                <a:t>Dice Similarity Coefficient Bins</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:title>
-          <cx:tx>
-            <cx:txData>
-              <cx:v># of Patients</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:txPr>
-            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-                </a:rPr>
-                <a:t># of Patients</a:t>
-              </a:r>
-            </a:p>
-          </cx:txPr>
-        </cx:title>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Machine Learning</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Machine Learning</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{BEF1A912-E2E0-4A82-81DD-E155CA70BCD7}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r">
@@ -1396,7 +1296,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="50"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -1411,7 +1311,141 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t># of Patients</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Machine Learning</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </cx:spPr>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Machine Learning</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{BEF1A912-E2E0-4A82-81DD-E155CA70BCD7}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.10000000000000001"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Dice Similarity Coefficient Bins</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                </a:rPr>
+                <a:t>Dice Similarity Coefficient Bins</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="50"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v># of Patients</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </cx:spPr>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -1438,7 +1472,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1457,7 +1491,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -1496,7 +1530,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -1513,7 +1547,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="50"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -1528,7 +1562,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -5397,16 +5431,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21317</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>60415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>432797</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>173081</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -5442,8 +5476,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5859780" y="1771650"/>
-              <a:ext cx="6507480" cy="4316730"/>
+              <a:off x="21317" y="1706335"/>
+              <a:ext cx="7117080" cy="4318906"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5599,7 +5633,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="5852160" y="6096000"/>
-              <a:ext cx="5798820" cy="4050030"/>
+              <a:ext cx="6408420" cy="4050030"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5676,7 +5710,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11666220" y="6096000"/>
+              <a:off x="12275820" y="6096000"/>
               <a:ext cx="5798820" cy="4050030"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5833,7 +5867,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="5829300" y="10142220"/>
-              <a:ext cx="5798820" cy="4050030"/>
+              <a:ext cx="6408420" cy="4050030"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5866,15 +5900,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>117022</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:colOff>469447</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -5910,8 +5944,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12268200" y="10134600"/>
-              <a:ext cx="5836920" cy="4050030"/>
+              <a:off x="12309022" y="10134600"/>
+              <a:ext cx="5838825" cy="4048125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5942,6 +5976,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10130,8 +10168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC570FEE-2B1F-42F3-A189-A3AFC8425DB7}">
   <dimension ref="A1:AK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AE67" sqref="AE67"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10325,13 +10363,16 @@
         <v>0.83121154833845101</v>
       </c>
       <c r="I3">
-        <v>0.58265925176946398</v>
+        <v>0.78128312443312797</v>
       </c>
       <c r="J3">
-        <v>0.73630410477559405</v>
+        <v>0.65744657373009097</v>
       </c>
       <c r="K3">
-        <v>2.2321971763176901E-4</v>
+        <v>0.79332460442511199</v>
+      </c>
+      <c r="L3">
+        <v>2.22982387118245E-4</v>
       </c>
       <c r="N3">
         <v>0.781403328561593</v>
@@ -10402,13 +10443,16 @@
         <v>0.78417560405625297</v>
       </c>
       <c r="I4">
-        <v>0.65210541292744995</v>
+        <v>0.69416183282560595</v>
       </c>
       <c r="J4">
-        <v>0.78942349298638403</v>
+        <v>0.62571282406223105</v>
       </c>
       <c r="K4">
-        <v>1.1276044235386E-4</v>
+        <v>0.76977042291976105</v>
+      </c>
+      <c r="L4">
+        <v>1.1485138054240101E-4</v>
       </c>
       <c r="N4">
         <v>0.69451237324208104</v>
@@ -10479,13 +10523,16 @@
         <v>0.90335911836388605</v>
       </c>
       <c r="I5">
-        <v>0.72053416726535102</v>
+        <v>0.83824308572639605</v>
       </c>
       <c r="J5">
-        <v>0.83757030923783504</v>
+        <v>0.77740651565033603</v>
       </c>
       <c r="K5">
-        <v>2.55054717978536E-4</v>
+        <v>0.87476501161119102</v>
+      </c>
+      <c r="L5">
+        <v>2.9010396894189498E-4</v>
       </c>
       <c r="N5">
         <v>0.83819010278690198</v>
@@ -10556,13 +10603,16 @@
         <v>0.92924187725631702</v>
       </c>
       <c r="I6">
-        <v>0.82653061224489799</v>
+        <v>0.87645407139991904</v>
       </c>
       <c r="J6">
-        <v>0.90502793296089301</v>
+        <v>0.84676794295458002</v>
       </c>
       <c r="K6">
-        <v>4.0636323668879999E-4</v>
+        <v>0.91702690225374495</v>
+      </c>
+      <c r="L6">
+        <v>4.0609861229987798E-4</v>
       </c>
       <c r="N6">
         <v>0.87645407139991904</v>
@@ -10633,13 +10683,16 @@
         <v>0.29632028260229598</v>
       </c>
       <c r="I7">
-        <v>0.15982344161824</v>
+        <v>0.209243450103032</v>
       </c>
       <c r="J7">
-        <v>0.27559960573869202</v>
+        <v>0.15531180352226501</v>
       </c>
       <c r="K7">
-        <v>1.3423161362615501E-3</v>
+        <v>0.26886560502326201</v>
+      </c>
+      <c r="L7">
+        <v>1.3470589307381299E-3</v>
       </c>
       <c r="N7">
         <v>0.22625846335001401</v>
@@ -10710,13 +10763,16 @@
         <v>0.57657184843077502</v>
       </c>
       <c r="I8">
-        <v>0.46941240905683201</v>
+        <v>0.53156578909701602</v>
       </c>
       <c r="J8">
-        <v>0.63891172575319799</v>
-      </c>
-      <c r="K8" s="1">
-        <v>8.6737798043034399E-5</v>
+        <v>0.47063917508353498</v>
+      </c>
+      <c r="K8">
+        <v>0.64004710748549398</v>
+      </c>
+      <c r="L8" s="1">
+        <v>8.6412144127640295E-5</v>
       </c>
       <c r="N8">
         <v>0.53172800748113003</v>
@@ -10788,13 +10844,16 @@
         <v>0.67911288718856799</v>
       </c>
       <c r="I9">
-        <v>0.56504097069019799</v>
+        <v>0.57877292828666305</v>
       </c>
       <c r="J9">
-        <v>0.72207818360309095</v>
+        <v>0.52844593543032004</v>
       </c>
       <c r="K9">
-        <v>1.27038158559959E-4</v>
+        <v>0.69148135786895304</v>
+      </c>
+      <c r="L9">
+        <v>1.2905271589380401E-4</v>
       </c>
       <c r="N9">
         <v>0.57938845276086404</v>
@@ -10865,13 +10924,16 @@
         <v>0.41488793453411099</v>
       </c>
       <c r="I10">
-        <v>0.37239897972882202</v>
+        <v>0.32863277995000301</v>
       </c>
       <c r="J10">
-        <v>0.54269783820796202</v>
+        <v>0.30213325999842799</v>
       </c>
       <c r="K10">
-        <v>2.7186322750148999E-4</v>
+        <v>0.46405889363242703</v>
+      </c>
+      <c r="L10">
+        <v>2.7795127739674199E-4</v>
       </c>
       <c r="N10">
         <v>0.32884644146742698</v>
@@ -10942,13 +11004,16 @@
         <v>0.71694076403567497</v>
       </c>
       <c r="I11">
-        <v>0.61694246040548295</v>
+        <v>0.59764396556168398</v>
       </c>
       <c r="J11">
-        <v>0.763097606145826</v>
+        <v>0.55035962684264195</v>
       </c>
       <c r="K11">
-        <v>2.0866056632471699E-4</v>
+        <v>0.70997672709456106</v>
+      </c>
+      <c r="L11">
+        <v>2.2304448019444301E-4</v>
       </c>
       <c r="N11">
         <v>0.59785018301799198</v>
@@ -11019,13 +11084,16 @@
         <v>0.92903399892066896</v>
       </c>
       <c r="I12">
-        <v>0.68599322574217902</v>
+        <v>0.85231156682856601</v>
       </c>
       <c r="J12">
-        <v>0.81375561333018198</v>
+        <v>0.75200380922149002</v>
       </c>
       <c r="K12">
-        <v>4.7338684399399601E-4</v>
+        <v>0.85844997055759298</v>
+      </c>
+      <c r="L12">
+        <v>4.3103693136577198E-4</v>
       </c>
       <c r="N12">
         <v>0.85204173412484197</v>
@@ -11096,13 +11164,16 @@
         <v>0.64207733516134702</v>
       </c>
       <c r="I13">
-        <v>0.57584106563442805</v>
+        <v>0.56125117424530901</v>
       </c>
       <c r="J13">
-        <v>0.73083647607900903</v>
+        <v>0.53500163361124897</v>
       </c>
       <c r="K13">
-        <v>1.36289486093124E-4</v>
+        <v>0.69706979054165896</v>
+      </c>
+      <c r="L13">
+        <v>1.3641466722813099E-4</v>
       </c>
       <c r="N13">
         <v>0.56170817782517002</v>
@@ -11173,13 +11244,16 @@
         <v>0.81337491583088195</v>
       </c>
       <c r="I14">
-        <v>0.62610712012366998</v>
+        <v>0.790008387378766</v>
       </c>
       <c r="J14">
-        <v>0.77006872717715202</v>
+        <v>0.68352088635411201</v>
       </c>
       <c r="K14">
-        <v>2.7108853992784701E-4</v>
+        <v>0.81201355076071202</v>
+      </c>
+      <c r="L14">
+        <v>2.7675737559408403E-4</v>
       </c>
       <c r="N14">
         <v>0.79010289305501402</v>
@@ -11250,12 +11324,15 @@
         <v>0.95061210799932905</v>
       </c>
       <c r="I15">
-        <v>0.90101331213987601</v>
+        <v>0.93790877075297596</v>
       </c>
       <c r="J15">
-        <v>0.94792951357678801</v>
-      </c>
-      <c r="K15" s="1">
+        <v>0.91793525091297001</v>
+      </c>
+      <c r="K15">
+        <v>0.95721192931410704</v>
+      </c>
+      <c r="L15" s="1">
         <v>7.9475260931534403E-5</v>
       </c>
       <c r="N15">
@@ -11328,13 +11405,16 @@
         <v>0.95312187706303098</v>
       </c>
       <c r="I16">
-        <v>0.74223308068540295</v>
+        <v>0.90702505617501095</v>
       </c>
       <c r="J16">
-        <v>0.85204797097918195</v>
-      </c>
-      <c r="K16" s="1">
-        <v>5.1007003695568897E-5</v>
+        <v>0.79651731767509104</v>
+      </c>
+      <c r="K16">
+        <v>0.88673491742999699</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5.14321314020657E-5</v>
       </c>
       <c r="N16">
         <v>0.90717647130077705</v>
@@ -11406,13 +11486,16 @@
         <v>0.90395729150603199</v>
       </c>
       <c r="I17">
-        <v>0.71993356258918695</v>
+        <v>0.86158658824047696</v>
       </c>
       <c r="J17">
-        <v>0.83716438617012501</v>
-      </c>
-      <c r="K17" s="1">
-        <v>9.9718086977003504E-5</v>
+        <v>0.79242224698612096</v>
+      </c>
+      <c r="K17">
+        <v>0.88419148815915904</v>
+      </c>
+      <c r="L17" s="1">
+        <v>9.5626835903023702E-5</v>
       </c>
       <c r="N17">
         <v>0.86159393151660602</v>
@@ -11484,13 +11567,16 @@
         <v>0.96934251758148104</v>
       </c>
       <c r="I18">
-        <v>0.73321682140906597</v>
+        <v>0.92833109503386302</v>
       </c>
       <c r="J18">
-        <v>0.84607628122715395</v>
+        <v>0.83734076640529298</v>
       </c>
       <c r="K18">
-        <v>1.7663299667930899E-4</v>
+        <v>0.91147029632780296</v>
+      </c>
+      <c r="L18">
+        <v>1.8503276043453E-4</v>
       </c>
       <c r="N18">
         <v>0.9284466201678</v>
@@ -11561,13 +11647,16 @@
         <v>0.95942022143008898</v>
       </c>
       <c r="I19">
-        <v>0.75627093412727897</v>
+        <v>0.93505819031656401</v>
       </c>
       <c r="J19">
-        <v>0.86122353838655596</v>
+        <v>0.87185243880964902</v>
       </c>
       <c r="K19">
-        <v>1.1692442800858E-4</v>
+        <v>0.93153970979045597</v>
+      </c>
+      <c r="L19">
+        <v>1.2214618668527101E-4</v>
       </c>
       <c r="N19">
         <v>0.93508179693586002</v>
@@ -11638,13 +11727,16 @@
         <v>0.81954362901455302</v>
       </c>
       <c r="I20">
-        <v>0.59358091202865804</v>
+        <v>0.72952851995815904</v>
       </c>
       <c r="J20">
-        <v>0.74496488700158703</v>
+        <v>0.61585296057472705</v>
       </c>
       <c r="K20">
-        <v>2.16810091721141E-4</v>
+        <v>0.76226361630785999</v>
+      </c>
+      <c r="L20">
+        <v>2.17705241121079E-4</v>
       </c>
       <c r="N20">
         <v>0.72978679442643701</v>
@@ -11715,13 +11807,16 @@
         <v>0.85429788943569995</v>
       </c>
       <c r="I21">
-        <v>0.74822187036618104</v>
+        <v>0.79139704721867499</v>
       </c>
       <c r="J21">
-        <v>0.85598044853363997</v>
+        <v>0.749989802161941</v>
       </c>
       <c r="K21">
-        <v>1.2371417039140501E-4</v>
+        <v>0.85713619729143797</v>
+      </c>
+      <c r="L21">
+        <v>1.32354123855954E-4</v>
       </c>
       <c r="N21">
         <v>0.79154052541716202</v>
@@ -11792,13 +11887,16 @@
         <v>0.63319632021922101</v>
       </c>
       <c r="I22">
-        <v>0.49848477066105001</v>
+        <v>0.54100606772362503</v>
       </c>
       <c r="J22">
-        <v>0.66531843422225201</v>
+        <v>0.495222169135212</v>
       </c>
       <c r="K22">
-        <v>1.0992175359628199E-3</v>
+        <v>0.66240613516536095</v>
+      </c>
+      <c r="L22">
+        <v>1.0991067562616801E-3</v>
       </c>
       <c r="N22">
         <v>0.54126704508383805</v>
@@ -11869,13 +11967,16 @@
         <v>0.97742529840583103</v>
       </c>
       <c r="I23">
-        <v>0.77257012600519204</v>
+        <v>0.952639589842185</v>
       </c>
       <c r="J23">
-        <v>0.87169485107629396</v>
+        <v>0.82745136240919503</v>
       </c>
       <c r="K23">
-        <v>1.9531702977909301E-4</v>
+        <v>0.90557962792326896</v>
+      </c>
+      <c r="L23">
+        <v>1.9608447949252301E-4</v>
       </c>
       <c r="N23">
         <v>0.952687655211087</v>
@@ -11946,13 +12047,16 @@
         <v>0.93370726673546101</v>
       </c>
       <c r="I24">
-        <v>0.82749210844617505</v>
+        <v>0.89600878798974704</v>
       </c>
       <c r="J24">
-        <v>0.90560402928333295</v>
-      </c>
-      <c r="K24" s="1">
-        <v>7.0586902642707694E-5</v>
+        <v>0.85305909011678505</v>
+      </c>
+      <c r="K24">
+        <v>0.92070360267143203</v>
+      </c>
+      <c r="L24" s="1">
+        <v>7.91274460966026E-5</v>
       </c>
       <c r="N24">
         <v>0.89615858326953102</v>
@@ -12024,13 +12128,16 @@
         <v>0.97291127883042094</v>
       </c>
       <c r="I25">
-        <v>0.65573697597068803</v>
+        <v>0.93467303530901902</v>
       </c>
       <c r="J25">
-        <v>0.79207867612699401</v>
+        <v>0.79044154568887603</v>
       </c>
       <c r="K25">
-        <v>1.21623184048297E-4</v>
+        <v>0.88295710920263704</v>
+      </c>
+      <c r="L25">
+        <v>1.1512312903825599E-4</v>
       </c>
       <c r="N25">
         <v>0.93485776112313201</v>
@@ -12101,13 +12208,16 @@
         <v>0.98377620869940097</v>
       </c>
       <c r="I26">
-        <v>0.69603683824160301</v>
+        <v>0.92734328679997802</v>
       </c>
       <c r="J26">
-        <v>0.8207803304122</v>
-      </c>
-      <c r="K26" s="1">
-        <v>8.5753800337936295E-5</v>
+        <v>0.82979646956689401</v>
+      </c>
+      <c r="K26">
+        <v>0.90698226099791701</v>
+      </c>
+      <c r="L26">
+        <v>1.06761926637589E-4</v>
       </c>
       <c r="N26">
         <v>0.93289494960383701</v>
@@ -12178,13 +12288,16 @@
         <v>0.60893287285602304</v>
       </c>
       <c r="I27">
-        <v>0.53742123866605196</v>
+        <v>0.54071257896315195</v>
       </c>
       <c r="J27">
-        <v>0.69912035185925603</v>
+        <v>0.49244079503805999</v>
       </c>
       <c r="K27">
-        <v>2.14031880600467E-4</v>
+        <v>0.65991334018111103</v>
+      </c>
+      <c r="L27">
+        <v>2.1046074270342601E-4</v>
       </c>
       <c r="N27">
         <v>0.54084801346605904</v>
@@ -12255,13 +12368,16 @@
         <v>0.54326093327688896</v>
       </c>
       <c r="I28">
-        <v>0.43453233662386298</v>
+        <v>0.48852128040639498</v>
       </c>
       <c r="J28">
-        <v>0.60581741593434502</v>
+        <v>0.42968436730251403</v>
       </c>
       <c r="K28">
-        <v>4.69042997283209E-4</v>
+        <v>0.60108983091593804</v>
+      </c>
+      <c r="L28">
+        <v>4.9487420095811004E-4</v>
       </c>
       <c r="N28">
         <v>0.48865153538050699</v>
@@ -12332,13 +12448,16 @@
         <v>0.95579832536744802</v>
       </c>
       <c r="I29">
-        <v>0.60667647494896204</v>
+        <v>0.92780393143349904</v>
       </c>
       <c r="J29">
-        <v>0.75519432120674301</v>
+        <v>0.76354118917000602</v>
       </c>
       <c r="K29">
-        <v>1.5856102562864701E-4</v>
+        <v>0.86591818082724703</v>
+      </c>
+      <c r="L29">
+        <v>1.5831502540139899E-4</v>
       </c>
       <c r="N29">
         <v>0.92794767671685696</v>
@@ -12409,13 +12528,16 @@
         <v>0.96996264557240097</v>
       </c>
       <c r="I30">
-        <v>0.67765309098724302</v>
+        <v>0.90138431114040796</v>
       </c>
       <c r="J30">
-        <v>0.80785842392298901</v>
+        <v>0.76369018253576704</v>
       </c>
       <c r="K30">
-        <v>1.3358132945752099E-4</v>
+        <v>0.86601398601398605</v>
+      </c>
+      <c r="L30">
+        <v>1.2853340571207099E-4</v>
       </c>
       <c r="N30">
         <v>0.92209404526477701</v>
@@ -12486,13 +12608,16 @@
         <v>0.86098552313102195</v>
       </c>
       <c r="I31">
-        <v>0.59260074181178102</v>
+        <v>0.79670731150385898</v>
       </c>
       <c r="J31">
-        <v>0.74419247241794395</v>
+        <v>0.69184248096446699</v>
       </c>
       <c r="K31">
-        <v>2.00357573087426E-4</v>
+        <v>0.81785684985291096</v>
+      </c>
+      <c r="L31">
+        <v>2.0578748508767901E-4</v>
       </c>
       <c r="N31">
         <v>0.79695848746403597</v>
@@ -12563,13 +12688,16 @@
         <v>0.88638313518813505</v>
       </c>
       <c r="I32">
-        <v>0.69825671833932301</v>
+        <v>0.84185153409322999</v>
       </c>
       <c r="J32">
-        <v>0.82232175006159003</v>
+        <v>0.72840175331102397</v>
       </c>
       <c r="K32">
-        <v>2.11610140478173E-4</v>
+        <v>0.84286162278608701</v>
+      </c>
+      <c r="L32">
+        <v>2.1784649632547101E-4</v>
       </c>
       <c r="N32">
         <v>0.84206942571938204</v>
@@ -12640,13 +12768,16 @@
         <v>0.975890162418659</v>
       </c>
       <c r="I33">
-        <v>0.65488538715493205</v>
+        <v>0.94103382704418903</v>
       </c>
       <c r="J33">
-        <v>0.79145709091166305</v>
+        <v>0.82454638560662796</v>
       </c>
       <c r="K33">
-        <v>1.6550106545791299E-4</v>
+        <v>0.90383713136729205</v>
+      </c>
+      <c r="L33">
+        <v>1.6890106473085799E-4</v>
       </c>
       <c r="N33">
         <v>0.95963085082256006</v>
@@ -12717,13 +12848,16 @@
         <v>0.94395753610665301</v>
       </c>
       <c r="I34">
-        <v>0.68888550104984503</v>
+        <v>0.90759925175429401</v>
       </c>
       <c r="J34">
-        <v>0.81578709820366102</v>
+        <v>0.78452004760536698</v>
       </c>
       <c r="K34">
-        <v>1.24144560279327E-4</v>
+        <v>0.87925047259413902</v>
+      </c>
+      <c r="L34">
+        <v>1.2567057006475301E-4</v>
       </c>
       <c r="N34">
         <v>0.90753278322714104</v>
@@ -12794,13 +12928,16 @@
         <v>0.78596890568630795</v>
       </c>
       <c r="I35">
-        <v>0.63996712826968805</v>
+        <v>0.66766878543205599</v>
       </c>
       <c r="J35">
-        <v>0.78046336080517698</v>
+        <v>0.626135288076202</v>
       </c>
       <c r="K35">
-        <v>2.29227705429667E-4</v>
+        <v>0.77009003207469995</v>
+      </c>
+      <c r="L35">
+        <v>2.2805767656188899E-4</v>
       </c>
       <c r="N35">
         <v>0.66803384298230495</v>
@@ -12871,13 +13008,16 @@
         <v>0.981758369173935</v>
       </c>
       <c r="I36">
-        <v>0.76640845366901</v>
+        <v>0.93822383411306298</v>
       </c>
       <c r="J36">
-        <v>0.86775904188762398</v>
-      </c>
-      <c r="K36" s="1">
-        <v>6.7411791670598999E-5</v>
+        <v>0.85880538072318802</v>
+      </c>
+      <c r="K36">
+        <v>0.92404012773952804</v>
+      </c>
+      <c r="L36" s="1">
+        <v>6.53248288402706E-5</v>
       </c>
       <c r="N36">
         <v>0.94050235267152904</v>
@@ -12949,12 +13089,15 @@
         <v>0.65054200663097905</v>
       </c>
       <c r="I37">
-        <v>0.60561060224124597</v>
+        <v>0.64549281048088003</v>
       </c>
       <c r="J37">
-        <v>0.75436796617546398</v>
+        <v>0.60166096075834397</v>
       </c>
       <c r="K37">
+        <v>0.751296279923653</v>
+      </c>
+      <c r="L37">
         <v>1.01508321612417E-4</v>
       </c>
       <c r="N37">
@@ -13026,13 +13169,16 @@
         <v>0.370283041473771</v>
       </c>
       <c r="I38">
-        <v>0.34535409701239</v>
+        <v>0.29299057806404599</v>
       </c>
       <c r="J38">
-        <v>0.51340252767552197</v>
+        <v>0.28090682693279601</v>
       </c>
       <c r="K38">
-        <v>1.4501208061080099E-4</v>
+        <v>0.43860618278605601</v>
+      </c>
+      <c r="L38">
+        <v>1.5036462832386199E-4</v>
       </c>
       <c r="N38">
         <v>0.293105596610786</v>
@@ -13103,13 +13249,16 @@
         <v>0.61823443703297698</v>
       </c>
       <c r="I39">
-        <v>0.55565300446329302</v>
+        <v>0.56841422823457</v>
       </c>
       <c r="J39">
-        <v>0.714366253745636</v>
+        <v>0.53251640534989697</v>
       </c>
       <c r="K39">
-        <v>1.40886286202755E-4</v>
+        <v>0.69495687418538998</v>
+      </c>
+      <c r="L39">
+        <v>1.3623703706122501E-4</v>
       </c>
       <c r="N39">
         <v>0.56852116723923596</v>
@@ -13180,13 +13329,16 @@
         <v>0.66150527393170899</v>
       </c>
       <c r="I40">
-        <v>0.57417261238251205</v>
+        <v>0.55884129872345201</v>
       </c>
       <c r="J40">
-        <v>0.72949129957673597</v>
-      </c>
-      <c r="K40" s="1">
-        <v>4.5779174747391799E-5</v>
+        <v>0.50938604419134204</v>
+      </c>
+      <c r="K40">
+        <v>0.67495793558134698</v>
+      </c>
+      <c r="L40" s="1">
+        <v>4.7479681052706097E-5</v>
       </c>
       <c r="N40">
         <v>0.55894791459357995</v>
@@ -13258,13 +13410,16 @@
         <v>0.99640535834353305</v>
       </c>
       <c r="I41">
-        <v>0.50790044906890697</v>
+        <v>0.950338775580573</v>
       </c>
       <c r="J41">
-        <v>0.673652493946166</v>
-      </c>
-      <c r="K41" s="1">
-        <v>6.0250898602487499E-5</v>
+        <v>0.64325182190014396</v>
+      </c>
+      <c r="K41">
+        <v>0.78290109078513803</v>
+      </c>
+      <c r="L41" s="1">
+        <v>6.2004605219003695E-5</v>
       </c>
       <c r="N41">
         <v>0.98056135027498503</v>
@@ -13336,12 +13491,15 @@
         <v>0.150801143197072</v>
       </c>
       <c r="I42">
-        <v>0.15042957764648199</v>
+        <v>0.13945969713036799</v>
       </c>
       <c r="J42">
-        <v>0.26151896746991998</v>
+        <v>0.13924001601053501</v>
       </c>
       <c r="K42">
+        <v>0.244443688869243</v>
+      </c>
+      <c r="L42">
         <v>5.0879820942330203E-4</v>
       </c>
       <c r="N42">
@@ -13413,13 +13571,16 @@
         <v>0.82895980459831098</v>
       </c>
       <c r="I43">
-        <v>0.74563464771511501</v>
+        <v>0.79818403865555099</v>
       </c>
       <c r="J43">
-        <v>0.85428488566159699</v>
+        <v>0.73863223168921999</v>
       </c>
       <c r="K43">
-        <v>1.07683905321937E-4</v>
+        <v>0.84967046880475705</v>
+      </c>
+      <c r="L43">
+        <v>1.10289637617546E-4</v>
       </c>
       <c r="N43">
         <v>0.79822651728349103</v>
@@ -13490,13 +13651,16 @@
         <v>0.91551373771678302</v>
       </c>
       <c r="I44">
-        <v>0.62956794731905197</v>
+        <v>0.87594298917128299</v>
       </c>
       <c r="J44">
-        <v>0.77268081807182198</v>
+        <v>0.72095634143267895</v>
       </c>
       <c r="K44">
-        <v>1.3271855446635199E-4</v>
+        <v>0.83785546916604503</v>
+      </c>
+      <c r="L44">
+        <v>1.2465136017906901E-4</v>
       </c>
       <c r="N44">
         <v>0.87612393174289405</v>
@@ -13567,13 +13731,16 @@
         <v>0.89645303767802398</v>
       </c>
       <c r="I45">
-        <v>0.69678764100048995</v>
+        <v>0.82896160086533199</v>
       </c>
       <c r="J45">
-        <v>0.82130211720500002</v>
+        <v>0.75180870631514396</v>
       </c>
       <c r="K45">
-        <v>2.6947352724037099E-4</v>
+        <v>0.85832283354332894</v>
+      </c>
+      <c r="L45">
+        <v>2.7515523995698198E-4</v>
       </c>
       <c r="N45">
         <v>0.82902920497566202</v>
@@ -13644,13 +13811,16 @@
         <v>0.98137240845353102</v>
       </c>
       <c r="I46">
-        <v>0.72557624790108299</v>
+        <v>0.96655292059759701</v>
       </c>
       <c r="J46">
-        <v>0.84096689298272698</v>
-      </c>
-      <c r="K46" s="1">
-        <v>4.5631094967938601E-5</v>
+        <v>0.85267540930524299</v>
+      </c>
+      <c r="K46">
+        <v>0.92048008520283398</v>
+      </c>
+      <c r="L46" s="1">
+        <v>4.95140988661808E-5</v>
       </c>
       <c r="N46">
         <v>0.96658159607719396</v>
@@ -13722,13 +13892,16 @@
         <v>0.96425420963473496</v>
       </c>
       <c r="I47">
-        <v>0.734241624462039</v>
+        <v>0.93016338925362396</v>
       </c>
       <c r="J47">
-        <v>0.84675816115277502</v>
-      </c>
-      <c r="K47" s="1">
-        <v>9.8064927925416899E-5</v>
+        <v>0.84625710227272699</v>
+      </c>
+      <c r="K47">
+        <v>0.91672725454216697</v>
+      </c>
+      <c r="L47" s="1">
+        <v>9.9643234842485798E-5</v>
       </c>
       <c r="N47">
         <v>0.93023364741332804</v>
@@ -13800,13 +13973,16 @@
         <v>0.65106569343065601</v>
       </c>
       <c r="I48">
-        <v>0.52663088722390405</v>
+        <v>0.52166423357664204</v>
       </c>
       <c r="J48">
-        <v>0.689925628560489</v>
+        <v>0.47289401769349299</v>
       </c>
       <c r="K48">
-        <v>1.06512951036851E-4</v>
+        <v>0.64212904935825699</v>
+      </c>
+      <c r="L48">
+        <v>1.08211279003254E-4</v>
       </c>
       <c r="N48">
         <v>0.52227007299270001</v>
@@ -13877,13 +14053,16 @@
         <v>0.95251979983450796</v>
       </c>
       <c r="I49">
-        <v>0.57132728304027203</v>
+        <v>0.81595019504314503</v>
       </c>
       <c r="J49">
-        <v>0.72719068676112197</v>
+        <v>0.67422022530442105</v>
       </c>
       <c r="K49">
-        <v>5.19821172304332E-4</v>
+        <v>0.80541402512543203</v>
+      </c>
+      <c r="L49">
+        <v>5.3138477259385899E-4</v>
       </c>
       <c r="N49">
         <v>0.87911265219275703</v>
@@ -13954,12 +14133,15 @@
         <v>0.93186461266633502</v>
       </c>
       <c r="I50">
-        <v>0.74460637969322097</v>
+        <v>0.88469254412603704</v>
       </c>
       <c r="J50">
-        <v>0.85360960312910905</v>
+        <v>0.77749741200828104</v>
       </c>
       <c r="K50">
+        <v>0.874822553052087</v>
+      </c>
+      <c r="L50">
         <v>1.9398740014457699E-4</v>
       </c>
       <c r="N50">
@@ -14031,13 +14213,16 @@
         <v>0.86553430938362896</v>
       </c>
       <c r="I51">
-        <v>0.7623772372648</v>
+        <v>0.79766581566196004</v>
       </c>
       <c r="J51">
-        <v>0.86516918301555601</v>
+        <v>0.74623460942298103</v>
       </c>
       <c r="K51">
-        <v>1.2684409857325501E-4</v>
+        <v>0.85467852417558399</v>
+      </c>
+      <c r="L51">
+        <v>1.34165375437737E-4</v>
       </c>
       <c r="N51">
         <v>0.79784296358047202</v>
@@ -14108,13 +14293,16 @@
         <v>0.88875502008032103</v>
       </c>
       <c r="I52">
-        <v>0.465046231437377</v>
+        <v>0.77811244979919603</v>
       </c>
       <c r="J52">
-        <v>0.63485536696151001</v>
+        <v>0.60267509979781198</v>
       </c>
       <c r="K52">
-        <v>6.9857280606158397E-4</v>
+        <v>0.75208643333117597</v>
+      </c>
+      <c r="L52">
+        <v>6.6838950005488197E-4</v>
       </c>
       <c r="N52">
         <v>0.82382864792503296</v>
@@ -14185,13 +14373,16 @@
         <v>0.54386232104782195</v>
       </c>
       <c r="I53">
-        <v>0.202334409881579</v>
+        <v>0.406183368869936</v>
       </c>
       <c r="J53">
-        <v>0.33656927426955702</v>
+        <v>0.21195263450687399</v>
       </c>
       <c r="K53">
-        <v>2.64613896597697E-3</v>
+        <v>0.34977049180327802</v>
+      </c>
+      <c r="L53">
+        <v>2.6700981768562199E-3</v>
       </c>
       <c r="N53">
         <v>0.40862016448370297</v>
@@ -14262,13 +14453,16 @@
         <v>0.71543138225768399</v>
       </c>
       <c r="I54">
-        <v>0.50376081663446903</v>
+        <v>0.63085140060228695</v>
       </c>
       <c r="J54">
-        <v>0.67000125427117296</v>
+        <v>0.52676919323026405</v>
       </c>
       <c r="K54">
-        <v>1.8894152356369799E-4</v>
+        <v>0.69004430475277201</v>
+      </c>
+      <c r="L54">
+        <v>1.8719924322173001E-4</v>
       </c>
       <c r="N54">
         <v>0.63085951768306003</v>
@@ -14339,13 +14533,16 @@
         <v>0.97463301067960395</v>
       </c>
       <c r="I55">
-        <v>0.74191649172469898</v>
+        <v>0.94346919164693999</v>
       </c>
       <c r="J55">
-        <v>0.851839333572318</v>
+        <v>0.81872911059436004</v>
       </c>
       <c r="K55">
-        <v>1.2966361112735E-4</v>
+        <v>0.90033101227130996</v>
+      </c>
+      <c r="L55">
+        <v>1.3544855714919701E-4</v>
       </c>
       <c r="N55">
         <v>0.94468793212553004</v>
@@ -14416,13 +14613,16 @@
         <v>0.75190108412371603</v>
       </c>
       <c r="I56">
-        <v>0.50808980812840698</v>
+        <v>0.67221025573895299</v>
       </c>
       <c r="J56">
-        <v>0.67381903304414503</v>
+        <v>0.50684175579642499</v>
       </c>
       <c r="K56">
-        <v>1.2376491177288899E-4</v>
+        <v>0.67272061428711705</v>
+      </c>
+      <c r="L56">
+        <v>1.28558675362436E-4</v>
       </c>
       <c r="N56">
         <v>0.67246016351108495</v>
@@ -14493,13 +14693,16 @@
         <v>0.644406257406968</v>
       </c>
       <c r="I57">
-        <v>0.594002621804675</v>
+        <v>0.59630752040090695</v>
       </c>
       <c r="J57">
-        <v>0.74529691943939902</v>
+        <v>0.56221268037287697</v>
       </c>
       <c r="K57">
-        <v>2.80967540933574E-4</v>
+        <v>0.71976458447217895</v>
+      </c>
+      <c r="L57">
+        <v>2.8006255430012699E-4</v>
       </c>
       <c r="N57">
         <v>0.59630752040090695</v>
@@ -14570,13 +14773,16 @@
         <v>0.96555014557999497</v>
       </c>
       <c r="I58">
-        <v>0.63114039647189502</v>
+        <v>0.89449732083873601</v>
       </c>
       <c r="J58">
-        <v>0.77386397619362701</v>
-      </c>
-      <c r="K58" s="1">
-        <v>8.4045877076803599E-5</v>
+        <v>0.74540227541491599</v>
+      </c>
+      <c r="K58">
+        <v>0.85413235208223803</v>
+      </c>
+      <c r="L58" s="1">
+        <v>8.09588816938321E-5</v>
       </c>
       <c r="N58">
         <v>0.89476646032639195</v>
@@ -14648,13 +14854,16 @@
         <v>0.76210370323658705</v>
       </c>
       <c r="I59">
-        <v>0.66042685042747795</v>
+        <v>0.68725701943844497</v>
       </c>
       <c r="J59">
-        <v>0.79549044904622102</v>
-      </c>
-      <c r="K59" s="1">
-        <v>4.6504245679317399E-5</v>
+        <v>0.62806914416945403</v>
+      </c>
+      <c r="K59">
+        <v>0.77155094600095497</v>
+      </c>
+      <c r="L59" s="1">
+        <v>4.5352362725993402E-5</v>
       </c>
       <c r="N59">
         <v>0.68744935441661004</v>
@@ -14726,13 +14935,16 @@
         <v>0.92537987777328601</v>
       </c>
       <c r="I60">
-        <v>0.62418798620578997</v>
+        <v>0.80220198321166103</v>
       </c>
       <c r="J60">
-        <v>0.768615445388109</v>
+        <v>0.68216286170707496</v>
       </c>
       <c r="K60">
-        <v>1.83385754991113E-4</v>
+        <v>0.81105447901139505</v>
+      </c>
+      <c r="L60">
+        <v>2.0093090786164601E-4</v>
       </c>
       <c r="N60">
         <v>0.83123677264404405</v>
@@ -14803,13 +15015,16 @@
         <v>0.80207403590456094</v>
       </c>
       <c r="I61">
-        <v>0.65841572940350002</v>
+        <v>0.72282083605546699</v>
       </c>
       <c r="J61">
-        <v>0.79402976917050705</v>
+        <v>0.67416752488843101</v>
       </c>
       <c r="K61">
-        <v>1.1315652870701199E-4</v>
+        <v>0.805376421255523</v>
+      </c>
+      <c r="L61">
+        <v>1.1255130899433699E-4</v>
       </c>
       <c r="N61">
         <v>0.72312448816216801</v>
@@ -14880,13 +15095,16 @@
         <v>0.841874854074247</v>
       </c>
       <c r="I62">
-        <v>0.58637232182786503</v>
+        <v>0.73184683632967495</v>
       </c>
       <c r="J62">
-        <v>0.73926191696565802</v>
+        <v>0.63117621888293096</v>
       </c>
       <c r="K62">
-        <v>2.9693656940738803E-4</v>
+        <v>0.77389090347966905</v>
+      </c>
+      <c r="L62">
+        <v>3.0251307962579703E-4</v>
       </c>
       <c r="N62">
         <v>0.73359794536539802</v>
@@ -14957,13 +15175,16 @@
         <v>0.43377428196877599</v>
       </c>
       <c r="I63">
-        <v>0.24906595136104201</v>
+        <v>0.318758193302347</v>
       </c>
       <c r="J63">
-        <v>0.39880352368847699</v>
+        <v>0.230424631925359</v>
       </c>
       <c r="K63">
-        <v>2.5852721039141798E-4</v>
+        <v>0.37454489441550398</v>
+      </c>
+      <c r="L63">
+        <v>2.5950158120499199E-4</v>
       </c>
       <c r="N63">
         <v>0.31989035871767302</v>
@@ -15034,13 +15255,16 @@
         <v>0.83056342910744496</v>
       </c>
       <c r="I64">
-        <v>0.58113487522650398</v>
+        <v>0.73860600746344696</v>
       </c>
       <c r="J64">
-        <v>0.73508577203858605</v>
+        <v>0.64229855298623895</v>
       </c>
       <c r="K64">
-        <v>1.6726902611888101E-4</v>
+        <v>0.782194628154946</v>
+      </c>
+      <c r="L64">
+        <v>1.66513751287629E-4</v>
       </c>
       <c r="N64">
         <v>0.73905462998837601</v>
@@ -15111,13 +15335,16 @@
         <v>0.89453114822438096</v>
       </c>
       <c r="I65">
-        <v>0.51396706586826302</v>
+        <v>0.81058336155910404</v>
       </c>
       <c r="J65">
-        <v>0.67896730048549903</v>
+        <v>0.606901798603253</v>
       </c>
       <c r="K65">
-        <v>2.17139237512747E-4</v>
+        <v>0.75536887086788096</v>
+      </c>
+      <c r="L65">
+        <v>2.17279118907707E-4</v>
       </c>
       <c r="N65">
         <v>0.811078398165759</v>
@@ -15188,13 +15415,16 @@
         <v>0.74543976115635202</v>
       </c>
       <c r="I66">
-        <v>0.536394519208097</v>
+        <v>0.629088437685838</v>
       </c>
       <c r="J66">
-        <v>0.69825101886535001</v>
+        <v>0.54685769145557905</v>
       </c>
       <c r="K66">
-        <v>1.4573180412615801E-4</v>
+        <v>0.70705623985486399</v>
+      </c>
+      <c r="L66">
+        <v>1.4643081416044001E-4</v>
       </c>
       <c r="N66">
         <v>0.62935543769797397</v>
@@ -15265,13 +15495,16 @@
         <v>0.80094767145552903</v>
       </c>
       <c r="I67">
-        <v>0.66222510733768303</v>
+        <v>0.73690179387227495</v>
       </c>
       <c r="J67">
-        <v>0.79679353225309102</v>
-      </c>
-      <c r="K67" s="1">
-        <v>5.7576549238964699E-5</v>
+        <v>0.64845154643340497</v>
+      </c>
+      <c r="K67">
+        <v>0.78674019607843104</v>
+      </c>
+      <c r="L67" s="1">
+        <v>5.7926648523774898E-5</v>
       </c>
       <c r="N67">
         <v>0.737039536816393</v>
@@ -15343,13 +15576,16 @@
         <v>0.77389662146086102</v>
       </c>
       <c r="I68">
-        <v>0.53769539927057797</v>
+        <v>0.68338091839162496</v>
       </c>
       <c r="J68">
-        <v>0.69935228983014397</v>
+        <v>0.55845718243793296</v>
       </c>
       <c r="K68">
-        <v>1.2382601327186701E-4</v>
+        <v>0.71667953246469696</v>
+      </c>
+      <c r="L68">
+        <v>1.24413310851695E-4</v>
       </c>
       <c r="N68">
         <v>0.68365601950987298</v>
@@ -15420,13 +15656,16 @@
         <v>0.83925247269383396</v>
       </c>
       <c r="I69">
-        <v>0.68465373707803401</v>
+        <v>0.75477717720411697</v>
       </c>
       <c r="J69">
-        <v>0.81281241599895704</v>
-      </c>
-      <c r="K69" s="1">
-        <v>7.8661669330568304E-5</v>
+        <v>0.67420102873341503</v>
+      </c>
+      <c r="K69">
+        <v>0.80540032787277505</v>
+      </c>
+      <c r="L69" s="1">
+        <v>7.9525123828046404E-5</v>
       </c>
       <c r="N69">
         <v>0.75487249646758003</v>
@@ -15498,13 +15737,16 @@
         <v>0.71925063005586698</v>
       </c>
       <c r="I70">
-        <v>0.53974593811787797</v>
+        <v>0.61574522831814704</v>
       </c>
       <c r="J70">
-        <v>0.70108441237733199</v>
+        <v>0.54031316450802203</v>
       </c>
       <c r="K70">
-        <v>1.5158158458226199E-4</v>
+        <v>0.70156274315891898</v>
+      </c>
+      <c r="L70">
+        <v>1.59560215108643E-4</v>
       </c>
       <c r="N70">
         <v>0.61596552757265399</v>
@@ -15575,13 +15817,16 @@
         <v>0.87134018301718497</v>
       </c>
       <c r="I71">
-        <v>0.65493214246124098</v>
+        <v>0.78412961493352795</v>
       </c>
       <c r="J71">
-        <v>0.79149123478527095</v>
-      </c>
-      <c r="K71" s="1">
-        <v>7.83585295961307E-5</v>
+        <v>0.69648181648056895</v>
+      </c>
+      <c r="K71">
+        <v>0.82108963351632303</v>
+      </c>
+      <c r="L71" s="1">
+        <v>7.9005006407977305E-5</v>
       </c>
       <c r="N71">
         <v>0.78425602741746303</v>
@@ -15653,13 +15898,16 @@
         <v>0.83194961664841105</v>
       </c>
       <c r="I72">
-        <v>0.51281410767091096</v>
+        <v>0.69136911281489599</v>
       </c>
       <c r="J72">
-        <v>0.67796050429543597</v>
+        <v>0.52860241347256998</v>
       </c>
       <c r="K72">
-        <v>1.5848143219110699E-4</v>
+        <v>0.691615306653518</v>
+      </c>
+      <c r="L72">
+        <v>1.5908892963366E-4</v>
       </c>
       <c r="N72">
         <v>0.69177437020810495</v>
@@ -15730,13 +15978,16 @@
         <v>0.93035114695452903</v>
       </c>
       <c r="I73">
-        <v>0.69763748029272599</v>
+        <v>0.87758496250039197</v>
       </c>
       <c r="J73">
-        <v>0.82189217473265397</v>
+        <v>0.76826504402291096</v>
       </c>
       <c r="K73">
-        <v>2.3344902266484401E-4</v>
+        <v>0.86894783858313496</v>
+      </c>
+      <c r="L73">
+        <v>2.3120418244187299E-4</v>
       </c>
       <c r="N73">
         <v>0.87767910377506497</v>
@@ -15807,13 +16058,16 @@
         <v>0.95784783381796101</v>
       </c>
       <c r="I74">
-        <v>0.61317192061493897</v>
+        <v>0.90638662845428097</v>
       </c>
       <c r="J74">
-        <v>0.76020653816141104</v>
+        <v>0.73313028764805399</v>
       </c>
       <c r="K74">
-        <v>2.07085788667214E-4</v>
+        <v>0.84601866677080395</v>
+      </c>
+      <c r="L74">
+        <v>2.0480745840185401E-4</v>
       </c>
       <c r="N74">
         <v>0.90619835575173102</v>
@@ -15884,13 +16138,16 @@
         <v>0.89534141671984602</v>
       </c>
       <c r="I75">
-        <v>0.70109937178755</v>
+        <v>0.82204394201841502</v>
       </c>
       <c r="J75">
-        <v>0.82428973100004199</v>
+        <v>0.75579397342944499</v>
       </c>
       <c r="K75">
-        <v>2.7077103228381099E-4</v>
+        <v>0.86091419023749804</v>
+      </c>
+      <c r="L75">
+        <v>2.7796864852553998E-4</v>
       </c>
       <c r="N75">
         <v>0.82204394201841502</v>
@@ -15961,13 +16218,16 @@
         <v>0.707174495261639</v>
       </c>
       <c r="I76">
-        <v>0.647756758031797</v>
+        <v>0.58683559950556197</v>
       </c>
       <c r="J76">
-        <v>0.78622861641972597</v>
+        <v>0.56137757741482497</v>
       </c>
       <c r="K76">
-        <v>2.40025260256042E-4</v>
+        <v>0.71907985042836098</v>
+      </c>
+      <c r="L76">
+        <v>2.5975141779883699E-4</v>
       </c>
       <c r="N76">
         <v>0.587041615162752</v>
@@ -16038,13 +16298,16 @@
         <v>0.57803485487101303</v>
       </c>
       <c r="I77">
-        <v>0.51255748611718499</v>
+        <v>0.49436522882850498</v>
       </c>
       <c r="J77">
-        <v>0.67773620615629904</v>
+        <v>0.463882753059149</v>
       </c>
       <c r="K77">
-        <v>1.19769755185545E-4</v>
+        <v>0.63377036458657598</v>
+      </c>
+      <c r="L77">
+        <v>1.1992294031677201E-4</v>
       </c>
       <c r="N77">
         <v>0.49463426299584401</v>
@@ -16115,13 +16378,16 @@
         <v>0.89228585861015497</v>
       </c>
       <c r="I78">
-        <v>0.74277647624196497</v>
+        <v>0.795600509946359</v>
       </c>
       <c r="J78">
-        <v>0.85240590100647995</v>
+        <v>0.75811682730325303</v>
       </c>
       <c r="K78">
-        <v>2.0643254326245601E-4</v>
+        <v>0.86241916979557698</v>
+      </c>
+      <c r="L78">
+        <v>2.04420113016417E-4</v>
       </c>
       <c r="N78">
         <v>0.795841050681933</v>
@@ -16192,13 +16458,16 @@
         <v>0.428143931099919</v>
       </c>
       <c r="I79">
-        <v>0.42077703157083002</v>
+        <v>0.355256915553609</v>
       </c>
       <c r="J79">
-        <v>0.59231958600233503</v>
+        <v>0.35156828400657197</v>
       </c>
       <c r="K79">
-        <v>1.6877071618398999E-4</v>
+        <v>0.52023754651061804</v>
+      </c>
+      <c r="L79">
+        <v>1.7324661997813399E-4</v>
       </c>
       <c r="N79">
         <v>0.355256915553609</v>
@@ -16269,13 +16538,16 @@
         <v>0.96876341777586905</v>
       </c>
       <c r="I80">
-        <v>0.56677593981184904</v>
+        <v>0.86236582224130498</v>
       </c>
       <c r="J80">
-        <v>0.72349329015087105</v>
+        <v>0.70486769144381201</v>
       </c>
       <c r="K80">
-        <v>1.4508650904481501E-4</v>
+        <v>0.82688843830089398</v>
+      </c>
+      <c r="L80">
+        <v>1.4946069570274901E-4</v>
       </c>
       <c r="N80">
         <v>0.89978531558608799</v>
@@ -16346,13 +16618,16 @@
         <v>0.37851411485768299</v>
       </c>
       <c r="I81">
-        <v>0.355873761886983</v>
+        <v>0.33695791821908599</v>
       </c>
       <c r="J81">
-        <v>0.52493642386251305</v>
+        <v>0.319678216450408</v>
       </c>
       <c r="K81">
-        <v>1.9017262241529501E-4</v>
+        <v>0.48447903809499798</v>
+      </c>
+      <c r="L81">
+        <v>1.99016282872989E-4</v>
       </c>
       <c r="N81">
         <v>0.33710975367617002</v>
@@ -16423,13 +16698,16 @@
         <v>0.77389043932301005</v>
       </c>
       <c r="I82">
-        <v>0.54762701067048802</v>
+        <v>0.684686712279438</v>
       </c>
       <c r="J82">
-        <v>0.70769895704164099</v>
+        <v>0.57487315639792502</v>
       </c>
       <c r="K82">
-        <v>1.7568017567113901E-4</v>
+        <v>0.73005645446746203</v>
+      </c>
+      <c r="L82">
+        <v>1.7563567875928301E-4</v>
       </c>
       <c r="N82">
         <v>0.68549693914295995</v>
@@ -16500,13 +16778,16 @@
         <v>0.83077616778580698</v>
       </c>
       <c r="I83">
-        <v>0.66158459657227098</v>
+        <v>0.70984803246523698</v>
       </c>
       <c r="J83">
-        <v>0.79632971795366003</v>
+        <v>0.65011105282542903</v>
       </c>
       <c r="K83">
-        <v>1.01496176210829E-4</v>
+        <v>0.78796036389461899</v>
+      </c>
+      <c r="L83" s="1">
+        <v>9.6907058602264099E-5</v>
       </c>
       <c r="N83">
         <v>0.71001864557563599</v>
@@ -16578,13 +16859,16 @@
         <v>0.79087054617589603</v>
       </c>
       <c r="I84">
-        <v>0.64050279822749501</v>
+        <v>0.72307541390999097</v>
       </c>
       <c r="J84">
-        <v>0.78086157356090502</v>
+        <v>0.669249238343118</v>
       </c>
       <c r="K84">
-        <v>1.2692983219519699E-4</v>
+        <v>0.80185657476460404</v>
+      </c>
+      <c r="L84">
+        <v>1.2677269503313501E-4</v>
       </c>
       <c r="N84">
         <v>0.72316261022158701</v>
@@ -16655,13 +16939,16 @@
         <v>0.79524732760427497</v>
       </c>
       <c r="I85">
-        <v>0.57641216517751104</v>
+        <v>0.69399758960385605</v>
       </c>
       <c r="J85">
-        <v>0.731296266179987</v>
+        <v>0.57539602804372703</v>
       </c>
       <c r="K85">
-        <v>1.00060735947805E-4</v>
+        <v>0.73047794687946999</v>
+      </c>
+      <c r="L85">
+        <v>1.05970838630154E-4</v>
       </c>
       <c r="N85">
         <v>0.69434473904841698</v>
@@ -16732,13 +17019,16 @@
         <v>0.57632983324682896</v>
       </c>
       <c r="I86">
-        <v>0.45814334832054998</v>
+        <v>0.51398038354560005</v>
       </c>
       <c r="J86">
-        <v>0.62839274183601601</v>
+        <v>0.452157115260785</v>
       </c>
       <c r="K86">
-        <v>6.7019312347116095E-4</v>
+        <v>0.62273855977296899</v>
+      </c>
+      <c r="L86">
+        <v>6.7665198162375701E-4</v>
       </c>
       <c r="N86">
         <v>0.51411346668263602</v>
@@ -16809,13 +17099,16 @@
         <v>0.65175777655070799</v>
       </c>
       <c r="I87">
-        <v>0.55518971464408895</v>
+        <v>0.59782808761273698</v>
       </c>
       <c r="J87">
-        <v>0.71398326444198001</v>
+        <v>0.55696549831950004</v>
       </c>
       <c r="K87">
-        <v>4.4328668926178099E-4</v>
+        <v>0.71545001982466105</v>
+      </c>
+      <c r="L87">
+        <v>4.4310724806870201E-4</v>
       </c>
       <c r="N87">
         <v>0.59793852383581803</v>
@@ -16886,13 +17179,16 @@
         <v>0.96023676268057501</v>
       </c>
       <c r="I88">
-        <v>0.676367389060887</v>
+        <v>0.89521493245817096</v>
       </c>
       <c r="J88">
-        <v>0.806944102437823</v>
-      </c>
-      <c r="K88" s="1">
-        <v>8.7274844149379594E-5</v>
+        <v>0.75615672103556597</v>
+      </c>
+      <c r="K88">
+        <v>0.86114947712602496</v>
+      </c>
+      <c r="L88" s="1">
+        <v>8.92648297090002E-5</v>
       </c>
       <c r="N88">
         <v>0.89590353678905199</v>
@@ -16964,13 +17260,16 @@
         <v>0.80936861367491597</v>
       </c>
       <c r="I89">
-        <v>0.63158169026318001</v>
+        <v>0.73228970485438605</v>
       </c>
       <c r="J89">
-        <v>0.77419560912246299</v>
-      </c>
-      <c r="K89" s="1">
-        <v>7.1009238661954197E-5</v>
+        <v>0.64480756489318702</v>
+      </c>
+      <c r="K89">
+        <v>0.78405228508911995</v>
+      </c>
+      <c r="L89" s="1">
+        <v>7.2549542340149406E-5</v>
       </c>
       <c r="N89">
         <v>0.73234758527344002</v>
@@ -17042,13 +17341,16 @@
         <v>0.97546681204852104</v>
       </c>
       <c r="I90">
-        <v>0.64532708173662101</v>
+        <v>0.93648630230339303</v>
       </c>
       <c r="J90">
-        <v>0.78443622414029301</v>
+        <v>0.81880474289459504</v>
       </c>
       <c r="K90">
-        <v>2.5619609120109099E-4</v>
+        <v>0.90037674037673998</v>
+      </c>
+      <c r="L90">
+        <v>2.25076709672345E-4</v>
       </c>
       <c r="N90">
         <v>0.93655445004770299</v>
@@ -17119,13 +17421,16 @@
         <v>0.69644928922037297</v>
       </c>
       <c r="I91">
-        <v>0.49888580404763599</v>
+        <v>0.54914260215465005</v>
       </c>
       <c r="J91">
-        <v>0.66567553405393498</v>
+        <v>0.47084544917903698</v>
       </c>
       <c r="K91">
-        <v>1.80947412328584E-4</v>
+        <v>0.640237829803047</v>
+      </c>
+      <c r="L91">
+        <v>1.8177295020558099E-4</v>
       </c>
       <c r="N91">
         <v>0.55006055969911305</v>
@@ -17196,13 +17501,16 @@
         <v>0.53294365470195104</v>
       </c>
       <c r="I92">
-        <v>0.47811721712576499</v>
+        <v>0.47601244367562701</v>
       </c>
       <c r="J92">
-        <v>0.64692733646046696</v>
+        <v>0.44853695086363199</v>
       </c>
       <c r="K92">
-        <v>2.0997912851827301E-4</v>
+        <v>0.61929652618969799</v>
+      </c>
+      <c r="L92">
+        <v>2.1884319217278401E-4</v>
       </c>
       <c r="N92">
         <v>0.47626354923761499</v>
@@ -17273,13 +17581,16 @@
         <v>0.79697171210803597</v>
       </c>
       <c r="I93">
-        <v>0.56853532819413399</v>
+        <v>0.723898920660903</v>
       </c>
       <c r="J93">
-        <v>0.72492511705004803</v>
+        <v>0.61488159895720096</v>
       </c>
       <c r="K93">
-        <v>1.33920968916122E-4</v>
+        <v>0.76151910995116501</v>
+      </c>
+      <c r="L93">
+        <v>1.3931164144611601E-4</v>
       </c>
       <c r="N93">
         <v>0.72397565092843597</v>
@@ -17350,13 +17661,16 @@
         <v>0.99150860167622401</v>
       </c>
       <c r="I94">
-        <v>0.72945738949827998</v>
+        <v>0.95432289369210399</v>
       </c>
       <c r="J94">
-        <v>0.84356792359006505</v>
+        <v>0.84356539878735803</v>
       </c>
       <c r="K94">
-        <v>1.46647836626121E-4</v>
+        <v>0.91514561874748801</v>
+      </c>
+      <c r="L94">
+        <v>1.3736471789810301E-4</v>
       </c>
       <c r="N94">
         <v>0.97225408028231097</v>
@@ -17427,13 +17741,16 @@
         <v>0.97441810805039497</v>
       </c>
       <c r="I95">
-        <v>0.59904954446398995</v>
+        <v>0.94067905188981404</v>
       </c>
       <c r="J95">
-        <v>0.74925701525376398</v>
+        <v>0.682342007434944</v>
       </c>
       <c r="K95">
-        <v>2.2853800979624099E-4</v>
+        <v>0.81118108496298702</v>
+      </c>
+      <c r="L95">
+        <v>2.31467854835544E-4</v>
       </c>
       <c r="N95">
         <v>0.94076446722186602</v>
@@ -17504,13 +17821,16 @@
         <v>0.60485292124169698</v>
       </c>
       <c r="I96">
-        <v>0.53258534256385703</v>
+        <v>0.50677029204886004</v>
       </c>
       <c r="J96">
-        <v>0.69501557632398703</v>
+        <v>0.48419871056873098</v>
       </c>
       <c r="K96">
-        <v>1.8204511982724899E-4</v>
+        <v>0.65247154187755696</v>
+      </c>
+      <c r="L96">
+        <v>1.9041943174839799E-4</v>
       </c>
       <c r="N96">
         <v>0.50699621948096896</v>
@@ -17581,13 +17901,16 @@
         <v>0.91521064972392396</v>
       </c>
       <c r="I97">
-        <v>0.56025002893853404</v>
+        <v>0.76983586718099895</v>
       </c>
       <c r="J97">
-        <v>0.71815416573929802</v>
+        <v>0.64460559232401204</v>
       </c>
       <c r="K97">
-        <v>2.5683714724596899E-4</v>
+        <v>0.78390295561759804</v>
+      </c>
+      <c r="L97">
+        <v>2.9256742975190098E-4</v>
       </c>
       <c r="N97">
         <v>0.77036532788745105</v>
@@ -17658,13 +17981,16 @@
         <v>0.237298471624042</v>
       </c>
       <c r="I98">
-        <v>0.19187327611445801</v>
+        <v>0.19199984754354499</v>
       </c>
       <c r="J98">
-        <v>0.321969256228264</v>
+        <v>0.16151916186384199</v>
       </c>
       <c r="K98">
-        <v>4.1577656753582001E-4</v>
+        <v>0.27811708522252798</v>
+      </c>
+      <c r="L98">
+        <v>4.1921139033712098E-4</v>
       </c>
       <c r="N98">
         <v>0.19215230399816999</v>
@@ -17735,12 +18061,15 @@
         <v>0.87601374789674702</v>
       </c>
       <c r="I99">
-        <v>0.81009549795361502</v>
+        <v>0.82638894426679199</v>
       </c>
       <c r="J99">
-        <v>0.89508592101296303</v>
-      </c>
-      <c r="K99" s="1">
+        <v>0.78660725807063703</v>
+      </c>
+      <c r="K99">
+        <v>0.88055979232962101</v>
+      </c>
+      <c r="L99" s="1">
         <v>8.7490563985727902E-5</v>
       </c>
       <c r="N99">
@@ -17813,13 +18142,16 @@
         <v>0.98008497890811197</v>
       </c>
       <c r="I100">
-        <v>0.59696698877283105</v>
+        <v>0.90273277495873305</v>
       </c>
       <c r="J100">
-        <v>0.74762595967191903</v>
+        <v>0.73481879595416699</v>
       </c>
       <c r="K100">
-        <v>2.9710163083229398E-4</v>
+        <v>0.84714184290355199</v>
+      </c>
+      <c r="L100">
+        <v>3.0142625505550301E-4</v>
       </c>
       <c r="N100">
         <v>0.90313015834199395</v>
@@ -17890,13 +18222,16 @@
         <v>0.64563762581894502</v>
       </c>
       <c r="I101">
-        <v>0.59770837851514402</v>
+        <v>0.54293656929119705</v>
       </c>
       <c r="J101">
-        <v>0.74820710281388703</v>
-      </c>
-      <c r="K101" s="1">
-        <v>8.4301395491458801E-5</v>
+        <v>0.53295262915836195</v>
+      </c>
+      <c r="K101">
+        <v>0.69532824305336705</v>
+      </c>
+      <c r="L101" s="1">
+        <v>9.0306590899685301E-5</v>
       </c>
       <c r="N101">
         <v>0.54306150974926004</v>
@@ -17968,12 +18303,15 @@
         <v>0.80133009606249295</v>
       </c>
       <c r="I102">
-        <v>0.67547606335646904</v>
+        <v>0.74556634645835496</v>
       </c>
       <c r="J102">
-        <v>0.80630941632588005</v>
+        <v>0.65805595024574304</v>
       </c>
       <c r="K102">
+        <v>0.793768087437835</v>
+      </c>
+      <c r="L102">
         <v>3.9721261887196998E-4</v>
       </c>
       <c r="N102">
@@ -18045,13 +18383,16 @@
         <v>0.71361550907626703</v>
       </c>
       <c r="I103">
-        <v>0.52369618139330598</v>
+        <v>0.61551646435616503</v>
       </c>
       <c r="J103">
-        <v>0.687402367727174</v>
+        <v>0.51069672784336795</v>
       </c>
       <c r="K103">
-        <v>1.6646541271059099E-4</v>
+        <v>0.67610754485769697</v>
+      </c>
+      <c r="L103">
+        <v>1.6995693787177999E-4</v>
       </c>
       <c r="N103">
         <v>0.61551646435616503</v>
@@ -18122,13 +18463,16 @@
         <v>0.70339318199794298</v>
       </c>
       <c r="I104">
-        <v>0.55699611674808902</v>
+        <v>0.56331566874950501</v>
       </c>
       <c r="J104">
-        <v>0.715475280582485</v>
+        <v>0.48063166419219799</v>
       </c>
       <c r="K104">
-        <v>7.4052197889972003E-4</v>
+        <v>0.64922515952597903</v>
+      </c>
+      <c r="L104">
+        <v>8.2324444222828502E-4</v>
       </c>
       <c r="N104">
         <v>0.56371114450684101</v>
@@ -18199,13 +18543,16 @@
         <v>0.88234389418640402</v>
       </c>
       <c r="I105">
-        <v>0.67336399236014</v>
+        <v>0.84717289784961203</v>
       </c>
       <c r="J105">
-        <v>0.80480277505005504</v>
+        <v>0.72253160028619101</v>
       </c>
       <c r="K105">
-        <v>1.5970255519668001E-4</v>
+        <v>0.83891825283918797</v>
+      </c>
+      <c r="L105">
+        <v>1.61184694649035E-4</v>
       </c>
       <c r="N105">
         <v>0.84720785212941396</v>
@@ -18276,13 +18623,16 @@
         <v>0.92097372366448305</v>
       </c>
       <c r="I106">
-        <v>0.55981102211137201</v>
+        <v>0.87990215418606399</v>
       </c>
       <c r="J106">
-        <v>0.71779339186051805</v>
+        <v>0.68423636252070896</v>
       </c>
       <c r="K106">
-        <v>8.7653845791610104E-4</v>
+        <v>0.81251821626347998</v>
+      </c>
+      <c r="L106">
+        <v>8.7565473605573201E-4</v>
       </c>
       <c r="N106">
         <v>0.87998106210052796</v>
@@ -18353,13 +18703,16 @@
         <v>0.89061258171758195</v>
       </c>
       <c r="I107">
-        <v>0.77472926736704595</v>
+        <v>0.83838773280844603</v>
       </c>
       <c r="J107">
-        <v>0.87306755076667997</v>
-      </c>
-      <c r="K107" s="1">
-        <v>4.1529840675946501E-5</v>
+        <v>0.78561038450690301</v>
+      </c>
+      <c r="K107">
+        <v>0.87993482937079803</v>
+      </c>
+      <c r="L107" s="1">
+        <v>4.0797915272948797E-5</v>
       </c>
       <c r="N107">
         <v>0.83853992282275203</v>
@@ -18431,12 +18784,15 @@
         <v>0.780732299250817</v>
       </c>
       <c r="I108">
-        <v>0.66623645586337299</v>
+        <v>0.73419272390465795</v>
       </c>
       <c r="J108">
-        <v>0.79969016824584704</v>
-      </c>
-      <c r="K108" s="1">
+        <v>0.65103235330810405</v>
+      </c>
+      <c r="K108">
+        <v>0.78863669994553198</v>
+      </c>
+      <c r="L108" s="1">
         <v>9.4007102478122799E-5</v>
       </c>
       <c r="N108">
@@ -18509,13 +18865,16 @@
         <v>0.723667935019496</v>
       </c>
       <c r="I109">
-        <v>0.68483835005574101</v>
+        <v>0.64928669878779999</v>
       </c>
       <c r="J109">
-        <v>0.812942499834579</v>
+        <v>0.62673838141481197</v>
       </c>
       <c r="K109">
-        <v>1.0106415147061699E-4</v>
+        <v>0.77054600613741298</v>
+      </c>
+      <c r="L109">
+        <v>1.10195241520313E-4</v>
       </c>
       <c r="N109">
         <v>0.64929847915464001</v>
@@ -18586,13 +18945,16 @@
         <v>0.92061993548894605</v>
       </c>
       <c r="I110">
-        <v>0.62602648120904103</v>
+        <v>0.81791361812603203</v>
       </c>
       <c r="J110">
-        <v>0.770007731661978</v>
+        <v>0.67247736093143595</v>
       </c>
       <c r="K110">
-        <v>2.9171158842532799E-4</v>
+        <v>0.80416916442673902</v>
+      </c>
+      <c r="L110">
+        <v>2.95860276503433E-4</v>
       </c>
       <c r="N110">
         <v>0.81826764219966897</v>
@@ -18663,13 +19025,16 @@
         <v>0.96650006754018603</v>
       </c>
       <c r="I111">
-        <v>0.45512371986514799</v>
+        <v>0.91625016885046595</v>
       </c>
       <c r="J111">
-        <v>0.62554642420003403</v>
+        <v>0.54503816793893101</v>
       </c>
       <c r="K111">
-        <v>8.0635287747470496E-4</v>
+        <v>0.70553359683794403</v>
+      </c>
+      <c r="L111">
+        <v>9.0972122941273604E-4</v>
       </c>
       <c r="N111">
         <v>0.91652032959610896</v>
@@ -18740,13 +19105,16 @@
         <v>0.96986162428457501</v>
       </c>
       <c r="I112">
-        <v>0.69979090433873403</v>
+        <v>0.87995363326813003</v>
       </c>
       <c r="J112">
-        <v>0.82338469108466295</v>
+        <v>0.78972691807542195</v>
       </c>
       <c r="K112">
-        <v>2.3808575557490499E-4</v>
+        <v>0.88251108043304505</v>
+      </c>
+      <c r="L112">
+        <v>2.8043386896956901E-4</v>
       </c>
       <c r="N112">
         <v>0.88125769760197004</v>
@@ -18817,13 +19185,16 @@
         <v>0.60801681825378595</v>
       </c>
       <c r="I113">
-        <v>0.56409440336875005</v>
+        <v>0.50994845451506698</v>
       </c>
       <c r="J113">
-        <v>0.72130480379419903</v>
+        <v>0.49355536258534599</v>
       </c>
       <c r="K113">
-        <v>3.4501911646059601E-4</v>
+        <v>0.66091338151804602</v>
+      </c>
+      <c r="L113">
+        <v>3.5243746920408199E-4</v>
       </c>
       <c r="N113">
         <v>0.51024752388156802</v>
@@ -18894,12 +19265,15 @@
         <v>0.66814402593832001</v>
       </c>
       <c r="I114">
-        <v>0.62061571517889302</v>
+        <v>0.60983020638787999</v>
       </c>
       <c r="J114">
-        <v>0.76590114407274601</v>
-      </c>
-      <c r="K114" s="1">
+        <v>0.58117136855419704</v>
+      </c>
+      <c r="K114">
+        <v>0.735114966172975</v>
+      </c>
+      <c r="L114" s="1">
         <v>6.2709678442737901E-5</v>
       </c>
       <c r="N114">
@@ -18984,4 +19358,260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d511dd8-12f5-480d-90a7-dcf028cec26b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010015058F1BD00AA3489DAE490667B31536" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4945cd9cae7b43f5398d6c8408cafb26">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d511dd8-12f5-480d-90a7-dcf028cec26b" xmlns:ns4="ef3573e6-14fe-4930-9c33-3524ff3759b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79bd30b009c4c0d3194139a643d77dd7" ns3:_="" ns4:_="">
+    <xsd:import namespace="6d511dd8-12f5-480d-90a7-dcf028cec26b"/>
+    <xsd:import namespace="ef3573e6-14fe-4930-9c33-3524ff3759b9"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6d511dd8-12f5-480d-90a7-dcf028cec26b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="10" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ef3573e6-14fe-4930-9c33-3524ff3759b9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="13" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{824656BD-FB82-46AC-8BD7-1677C551FBB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef3573e6-14fe-4930-9c33-3524ff3759b9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6d511dd8-12f5-480d-90a7-dcf028cec26b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BB2F58D-6074-4479-A2BE-1D55B0E47526}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D217EC6D-4B1A-4EE7-830C-4E1FCD020DFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d511dd8-12f5-480d-90a7-dcf028cec26b"/>
+    <ds:schemaRef ds:uri="ef3573e6-14fe-4930-9c33-3524ff3759b9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>